--- a/medicine/Enfance/Jacques_Soubrier/Jacques_Soubrier.xlsx
+++ b/medicine/Enfance/Jacques_Soubrier/Jacques_Soubrier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacques Soubrier, né le 20 mai 1909 et mort le 16 octobre 1965, est un explorateur, voyageur et écrivain français.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Administrateur de sociétés, grand voyageur, explorateur[1], vice-président de la Société des explorateurs français[2], il est aussi l'auteur d'un récit de voyage : Moines et brigands, de l'Adriatique aux marches iraniennes. Il a également écrit des romans de littérature jeunesse, publiés notamment dans la collection Pierrot.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Administrateur de sociétés, grand voyageur, explorateur, vice-président de la Société des explorateurs français, il est aussi l'auteur d'un récit de voyage : Moines et brigands, de l'Adriatique aux marches iraniennes. Il a également écrit des romans de littérature jeunesse, publiés notamment dans la collection Pierrot.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Officier de la Légion d'honneur (décret du 12 mai 1961)[3]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Officier de la Légion d'honneur (décret du 12 mai 1961)
  Croix de guerre 1939-1945
  Officier de l'Instruction publique</t>
         </is>
@@ -574,7 +590,9 @@
           <t>Sélections de publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Savanes et forêts, éd. les écrivains français, 1936 ; rééd. J. Susse, 1944
 Moines et brigands de l'Adriatique aux marches iraniennes, J. Susse, 1945
@@ -611,9 +629,11 @@
           <t>Quelques prix et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Prix Montyon de Académie française 1937 pour  Savanes et forêts[4]</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Prix Montyon de Académie française 1937 pour  Savanes et forêts</t>
         </is>
       </c>
     </row>
